--- a/BioSTEAM 2.x.x/biorefineries/ethanol_adipic/_Feedstock compositions.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/ethanol_adipic/_Feedstock compositions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/biosteam_modules/ethanol_adipic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="114_{77C38BF5-6B6A-024E-980B-4F434491955E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{995BDA38-8732-A344-98BD-25689A541AC5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{77C38BF5-6B6A-024E-980B-4F434491955E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36FA6864-6C51-3943-96B3-C63433C1EC43}"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="1200" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -898,15 +898,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,4217 +920,4202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.468896321</v>
+        <v>0.25</v>
       </c>
       <c r="B2">
-        <v>0.32026755899999998</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
-        <v>0.21083611999999999</v>
+        <v>0.625</v>
       </c>
       <c r="D2">
-        <f>SUM(A2:C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <f t="shared" ref="D2:D65" si="0">SUM(A2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.25</v>
       </c>
       <c r="B3">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C3">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">SUM(A3:C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.25</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.25</v>
       </c>
       <c r="B5">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>0.57499999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C6">
-        <v>0.55000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.25</v>
       </c>
       <c r="B7">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
-        <v>0.52500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.25</v>
       </c>
       <c r="B8">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.25</v>
       </c>
       <c r="B9">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.25</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C10">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.25</v>
       </c>
       <c r="B11">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C11">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.25</v>
       </c>
       <c r="B12">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.25</v>
       </c>
       <c r="B13">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.25</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C14">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.25</v>
       </c>
       <c r="B15">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C15">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.25</v>
       </c>
       <c r="B16">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C16">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.25</v>
       </c>
       <c r="B17">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>0.25</v>
-      </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.27500000000000002</v>
       </c>
       <c r="B19">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.27500000000000002</v>
       </c>
       <c r="B20">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C20">
-        <v>0.57499999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.27500000000000002</v>
       </c>
       <c r="B21">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C21">
-        <v>0.55000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.27500000000000002</v>
       </c>
       <c r="B22">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C22">
-        <v>0.52500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.27500000000000002</v>
       </c>
       <c r="B23">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.27500000000000002</v>
       </c>
       <c r="B24">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C24">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.27500000000000002</v>
       </c>
       <c r="B25">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C25">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.27500000000000002</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C26">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.27500000000000002</v>
       </c>
       <c r="B27">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C27">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.27500000000000002</v>
       </c>
       <c r="B28">
+        <v>0.375</v>
+      </c>
+      <c r="C28">
         <v>0.35</v>
       </c>
-      <c r="C28">
-        <v>0.375</v>
-      </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.27500000000000002</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.27500000000000002</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C30">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.27500000000000002</v>
       </c>
       <c r="B31">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C31">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.27500000000000002</v>
       </c>
       <c r="B32">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C32">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.27500000000000002</v>
       </c>
       <c r="B33">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C34">
-        <v>0.22500000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.3</v>
       </c>
       <c r="B35">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C35">
-        <v>0.57499999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.3</v>
       </c>
       <c r="B36">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C36">
-        <v>0.55000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.3</v>
       </c>
       <c r="B37">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.52500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.3</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.3</v>
       </c>
       <c r="B39">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C39">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.3</v>
       </c>
       <c r="B40">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C40">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.3</v>
       </c>
       <c r="B41">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C41">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.3</v>
       </c>
       <c r="B42">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C42">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.3</v>
       </c>
       <c r="B43">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C43">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.3</v>
       </c>
       <c r="B44">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C44">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.3</v>
       </c>
       <c r="B45">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C45">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.3</v>
       </c>
       <c r="B46">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C46">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.3</v>
       </c>
       <c r="B47">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C47">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.3</v>
       </c>
       <c r="B48">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C48">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.3</v>
       </c>
       <c r="B49">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C49">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C50">
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.32500000000000001</v>
       </c>
       <c r="B51">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C51">
-        <v>0.55000000000000004</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.32500000000000001</v>
       </c>
       <c r="B52">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C52">
-        <v>0.52500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.32500000000000001</v>
       </c>
       <c r="B53">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C53">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.32500000000000001</v>
       </c>
       <c r="B54">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C54">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.32500000000000001</v>
       </c>
       <c r="B55">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C55">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.32500000000000001</v>
       </c>
       <c r="B56">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C56">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.32500000000000001</v>
       </c>
       <c r="B57">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C57">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.32500000000000001</v>
       </c>
       <c r="B58">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C58">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.32500000000000001</v>
       </c>
       <c r="B59">
+        <v>0.35</v>
+      </c>
+      <c r="C59">
         <v>0.32500000000000001</v>
       </c>
-      <c r="C59">
-        <v>0.35</v>
-      </c>
       <c r="D59">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.32500000000000001</v>
       </c>
       <c r="B60">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C60">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.32500000000000001</v>
       </c>
       <c r="B61">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C61">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.32500000000000001</v>
       </c>
       <c r="B62">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C62">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.32500000000000001</v>
       </c>
       <c r="B63">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C63">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.32500000000000001</v>
       </c>
       <c r="B64">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C64">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.32500000000000001</v>
       </c>
       <c r="B65">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C65">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C66">
-        <v>0.17499999999999999</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <f t="shared" ref="D66:D129" si="1">SUM(A66:C66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.35</v>
       </c>
       <c r="B67">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C67">
-        <v>0.52500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">SUM(A67:C67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.35</v>
       </c>
       <c r="B68">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.35</v>
       </c>
       <c r="B69">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C69">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.35</v>
       </c>
       <c r="B70">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C70">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.35</v>
       </c>
       <c r="B71">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C71">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.35</v>
       </c>
       <c r="B72">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C72">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.35</v>
       </c>
       <c r="B73">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C73">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.35</v>
       </c>
       <c r="B74">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C74">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.35</v>
       </c>
       <c r="B75">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C75">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.35</v>
       </c>
       <c r="B76">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C76">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.35</v>
       </c>
       <c r="B77">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C77">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.35</v>
       </c>
       <c r="B78">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C78">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.35</v>
       </c>
       <c r="B79">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C79">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.35</v>
       </c>
       <c r="B80">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C80">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.35</v>
       </c>
       <c r="B81">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C81">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="B82">
+        <v>0.125</v>
+      </c>
+      <c r="C82">
         <v>0.5</v>
       </c>
-      <c r="C82">
-        <v>0.15</v>
-      </c>
       <c r="D82">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.375</v>
       </c>
       <c r="B83">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C83">
-        <v>0.5</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.375</v>
       </c>
       <c r="B84">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C84">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.375</v>
       </c>
       <c r="B85">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C85">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.375</v>
       </c>
       <c r="B86">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C86">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.375</v>
       </c>
       <c r="B87">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C87">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.375</v>
       </c>
       <c r="B88">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C88">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.375</v>
       </c>
       <c r="B89">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C89">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.375</v>
       </c>
       <c r="B90">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C90">
         <v>0.3</v>
       </c>
-      <c r="C90">
-        <v>0.32500000000000001</v>
-      </c>
       <c r="D90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.375</v>
       </c>
       <c r="B91">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C91">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.375</v>
       </c>
       <c r="B92">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C92">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.375</v>
       </c>
       <c r="B93">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C93">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.375</v>
       </c>
       <c r="B94">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C94">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.375</v>
       </c>
       <c r="B95">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C95">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.375</v>
       </c>
       <c r="B96">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C96">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.375</v>
       </c>
       <c r="B97">
+        <v>0.5</v>
+      </c>
+      <c r="C97">
+        <v>0.125</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0.4</v>
+      </c>
+      <c r="B98">
+        <v>0.125</v>
+      </c>
+      <c r="C98">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C97">
-        <v>0.15</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>0.375</v>
-      </c>
-      <c r="B98">
-        <v>0.5</v>
-      </c>
-      <c r="C98">
-        <v>0.125</v>
-      </c>
       <c r="D98">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.4</v>
       </c>
       <c r="B99">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C99">
-        <v>0.47499999999999998</v>
+        <v>0.45</v>
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.4</v>
       </c>
       <c r="B100">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C100">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.4</v>
       </c>
       <c r="B101">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C101">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.4</v>
       </c>
       <c r="B102">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C102">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.4</v>
       </c>
       <c r="B103">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C103">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.4</v>
       </c>
       <c r="B104">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C104">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.4</v>
       </c>
       <c r="B105">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C105">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D105">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.4</v>
       </c>
       <c r="B106">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C106">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.4</v>
       </c>
       <c r="B107">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C107">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.4</v>
       </c>
       <c r="B108">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C108">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D108">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.4</v>
       </c>
       <c r="B109">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C109">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D109">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.4</v>
       </c>
       <c r="B110">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C110">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.4</v>
       </c>
       <c r="B111">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C111">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.4</v>
       </c>
       <c r="B112">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C112">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D112">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.4</v>
       </c>
       <c r="B113">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C113">
+        <v>0.1</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B114">
         <v>0.125</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>0.4</v>
-      </c>
-      <c r="B114">
-        <v>0.5</v>
-      </c>
       <c r="C114">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D114">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.42499999999999999</v>
       </c>
       <c r="B115">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C115">
-        <v>0.45</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.42499999999999999</v>
       </c>
       <c r="B116">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C116">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.42499999999999999</v>
       </c>
       <c r="B117">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C117">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.42499999999999999</v>
       </c>
       <c r="B118">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C118">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.42499999999999999</v>
       </c>
       <c r="B119">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C119">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D119">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.42499999999999999</v>
       </c>
       <c r="B120">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C120">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D120">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.42499999999999999</v>
       </c>
       <c r="B121">
+        <v>0.3</v>
+      </c>
+      <c r="C121">
         <v>0.27500000000000002</v>
       </c>
-      <c r="C121">
-        <v>0.3</v>
-      </c>
       <c r="D121">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.42499999999999999</v>
       </c>
       <c r="B122">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C122">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D122">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.42499999999999999</v>
       </c>
       <c r="B123">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C123">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.42499999999999999</v>
       </c>
       <c r="B124">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C124">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D124">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.42499999999999999</v>
       </c>
       <c r="B125">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C125">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.42499999999999999</v>
       </c>
       <c r="B126">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C126">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.42499999999999999</v>
       </c>
       <c r="B127">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C127">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.42499999999999999</v>
       </c>
       <c r="B128">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C128">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.42499999999999999</v>
       </c>
       <c r="B129">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C129">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
+        <v>0.45</v>
+      </c>
+      <c r="B130">
+        <v>0.125</v>
+      </c>
+      <c r="C130">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B130">
-        <v>0.5</v>
-      </c>
-      <c r="C130">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="D130">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <f t="shared" ref="D130:D193" si="2">SUM(A130:C130)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.45</v>
       </c>
       <c r="B131">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C131">
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">SUM(A131:C131)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.45</v>
       </c>
       <c r="B132">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C132">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D132">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.45</v>
       </c>
       <c r="B133">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C133">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D133">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.45</v>
       </c>
       <c r="B134">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C134">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D134">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.45</v>
       </c>
       <c r="B135">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C135">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D135">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.45</v>
       </c>
       <c r="B136">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C136">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D136">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.45</v>
       </c>
       <c r="B137">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C137">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D137">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.45</v>
       </c>
       <c r="B138">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C138">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D138">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.45</v>
       </c>
       <c r="B139">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C139">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D139">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.45</v>
       </c>
       <c r="B140">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C140">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D140">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.45</v>
       </c>
       <c r="B141">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C141">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D141">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.45</v>
       </c>
       <c r="B142">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C142">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D142">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.45</v>
       </c>
       <c r="B143">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C143">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D143">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.45</v>
       </c>
       <c r="B144">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C144">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D144">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.45</v>
       </c>
       <c r="B145">
+        <v>0.5</v>
+      </c>
+      <c r="C145">
+        <v>0.05</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C145">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D145">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146">
-        <v>0.45</v>
-      </c>
       <c r="B146">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C146">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D146">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.47499999999999998</v>
       </c>
       <c r="B147">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C147">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="D147">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.47499999999999998</v>
       </c>
       <c r="B148">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C148">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D148">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.47499999999999998</v>
       </c>
       <c r="B149">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C149">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D149">
         <f t="shared" si="2"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.47499999999999998</v>
       </c>
       <c r="B150">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C150">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D150">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.47499999999999998</v>
       </c>
       <c r="B151">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C151">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D151">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0.47499999999999998</v>
       </c>
       <c r="B152">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C152">
         <v>0.25</v>
       </c>
-      <c r="C152">
-        <v>0.27500000000000002</v>
-      </c>
       <c r="D152">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0.47499999999999998</v>
       </c>
       <c r="B153">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C153">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D153">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>0.47499999999999998</v>
       </c>
       <c r="B154">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C154">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D154">
         <f t="shared" si="2"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0.47499999999999998</v>
       </c>
       <c r="B155">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C155">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D155">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0.47499999999999998</v>
       </c>
       <c r="B156">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C156">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D156">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0.47499999999999998</v>
       </c>
       <c r="B157">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C157">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D157">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0.47499999999999998</v>
       </c>
       <c r="B158">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C158">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D158">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0.47499999999999998</v>
       </c>
       <c r="B159">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C159">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D159">
         <f t="shared" si="2"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0.47499999999999998</v>
       </c>
       <c r="B160">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C160">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D160">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0.47499999999999998</v>
       </c>
       <c r="B161">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="C161">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D161">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>0.47499999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="B162">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="C162">
-        <v>2.5000000000000001E-2</v>
+        <v>0.375</v>
       </c>
       <c r="D162">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>0.5</v>
       </c>
       <c r="B163">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C163">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="D163">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0.5</v>
       </c>
       <c r="B164">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C164">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D164">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0.5</v>
       </c>
       <c r="B165">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C165">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0.5</v>
       </c>
       <c r="B166">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C166">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D166">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0.5</v>
       </c>
       <c r="B167">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C167">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D167">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0.5</v>
       </c>
       <c r="B168">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C168">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D168">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0.5</v>
       </c>
       <c r="B169">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C169">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0.5</v>
       </c>
       <c r="B170">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C170">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0.5</v>
       </c>
       <c r="B171">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C171">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D171">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0.5</v>
       </c>
       <c r="B172">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C172">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D172">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0.5</v>
       </c>
       <c r="B173">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C173">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D173">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0.5</v>
       </c>
       <c r="B174">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C174">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D174">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0.5</v>
       </c>
       <c r="B175">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C175">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D175">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0.5</v>
       </c>
       <c r="B176">
-        <v>0.45</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C176">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D176">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>0.5</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="B177">
-        <v>0.47499999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="C177">
-        <v>2.5000000000000001E-2</v>
+        <v>0.35</v>
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0.52500000000000002</v>
       </c>
       <c r="B178">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C178">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0.52500000000000002</v>
       </c>
       <c r="B179">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C179">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D179">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0.52500000000000002</v>
       </c>
       <c r="B180">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C180">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0.52500000000000002</v>
       </c>
       <c r="B181">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C181">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0.52500000000000002</v>
       </c>
       <c r="B182">
+        <v>0.25</v>
+      </c>
+      <c r="C182">
         <v>0.22500000000000001</v>
       </c>
-      <c r="C182">
-        <v>0.25</v>
-      </c>
       <c r="D182">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0.52500000000000002</v>
       </c>
       <c r="B183">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C183">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0.52500000000000002</v>
       </c>
       <c r="B184">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C184">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0.52500000000000002</v>
       </c>
       <c r="B185">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C185">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>0.52500000000000002</v>
       </c>
       <c r="B186">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C186">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D186">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0.52500000000000002</v>
       </c>
       <c r="B187">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C187">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0.52500000000000002</v>
       </c>
       <c r="B188">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C188">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D188">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0.52500000000000002</v>
       </c>
       <c r="B189">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C189">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D189">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>0.52500000000000002</v>
       </c>
       <c r="B190">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C190">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D190">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>0.52500000000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B191">
-        <v>0.45</v>
+        <v>0.125</v>
       </c>
       <c r="C191">
-        <v>2.5000000000000001E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D191">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0.55000000000000004</v>
       </c>
       <c r="B192">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C192">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="D192">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0.55000000000000004</v>
       </c>
       <c r="B193">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C193">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D193">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0.55000000000000004</v>
       </c>
       <c r="B194">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C194">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D194">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <f t="shared" ref="D194:D257" si="3">SUM(A194:C194)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0.55000000000000004</v>
       </c>
       <c r="B195">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C195">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="3">SUM(A195:C195)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0.55000000000000004</v>
       </c>
       <c r="B196">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C196">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D196">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>0.55000000000000004</v>
       </c>
       <c r="B197">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C197">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D197">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0.55000000000000004</v>
       </c>
       <c r="B198">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C198">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D198">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0.55000000000000004</v>
       </c>
       <c r="B199">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C199">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D199">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0.55000000000000004</v>
       </c>
       <c r="B200">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C200">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D200">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0.55000000000000004</v>
       </c>
       <c r="B201">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C201">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D201">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>0.55000000000000004</v>
       </c>
       <c r="B202">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C202">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D202">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0.55000000000000004</v>
       </c>
       <c r="B203">
-        <v>0.4</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C203">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D203">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>0.55000000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="B204">
-        <v>0.42499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="C204">
-        <v>2.5000000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="D204">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0.57499999999999996</v>
       </c>
       <c r="B205">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C205">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D205">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0.57499999999999996</v>
       </c>
       <c r="B206">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C206">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D206">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>0.57499999999999996</v>
       </c>
       <c r="B207">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C207">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D207">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0.57499999999999996</v>
       </c>
       <c r="B208">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C208">
         <v>0.2</v>
       </c>
-      <c r="C208">
-        <v>0.22500000000000001</v>
-      </c>
       <c r="D208">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0.57499999999999996</v>
       </c>
       <c r="B209">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C209">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D209">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0.57499999999999996</v>
       </c>
       <c r="B210">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C210">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>0.57499999999999996</v>
       </c>
       <c r="B211">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C211">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D211">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0.57499999999999996</v>
       </c>
       <c r="B212">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C212">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D212">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0.57499999999999996</v>
       </c>
       <c r="B213">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C213">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D213">
         <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0.57499999999999996</v>
       </c>
       <c r="B214">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C214">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D214">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0.57499999999999996</v>
       </c>
       <c r="B215">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C215">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D215">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>0.57499999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="B216">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="C216">
-        <v>2.5000000000000001E-2</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D216">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0.6</v>
       </c>
       <c r="B217">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C217">
-        <v>0.27500000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="D217">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0.6</v>
       </c>
       <c r="B218">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C218">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D218">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0.6</v>
       </c>
       <c r="B219">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C219">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D219">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0.6</v>
       </c>
       <c r="B220">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C220">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D220">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0.6</v>
       </c>
       <c r="B221">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C221">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D221">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0.6</v>
       </c>
       <c r="B222">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C222">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D222">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>0.6</v>
       </c>
       <c r="B223">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C223">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D223">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0.6</v>
       </c>
       <c r="B224">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C224">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D224">
         <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0.6</v>
       </c>
       <c r="B225">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C225">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D225">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0.6</v>
       </c>
       <c r="B226">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C226">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D226">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="B227">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="C227">
-        <v>2.5000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D227">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0.625</v>
       </c>
       <c r="B228">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C228">
-        <v>0.25</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D228">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0.625</v>
       </c>
       <c r="B229">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C229">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D229">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>0.625</v>
       </c>
       <c r="B230">
+        <v>0.2</v>
+      </c>
+      <c r="C230">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C230">
-        <v>0.2</v>
-      </c>
       <c r="D230">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0.625</v>
       </c>
       <c r="B231">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C231">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D231">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>0.625</v>
       </c>
       <c r="B232">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C232">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D232">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>0.625</v>
       </c>
       <c r="B233">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C233">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D233">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>0.625</v>
       </c>
       <c r="B234">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C234">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D234">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>0.625</v>
       </c>
       <c r="B235">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C235">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D235">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0.625</v>
       </c>
       <c r="B236">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C236">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D236">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="B237">
-        <v>0.35</v>
+        <v>0.125</v>
       </c>
       <c r="C237">
-        <v>2.5000000000000001E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D237">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0.65</v>
       </c>
       <c r="B238">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C238">
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D238">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0.65</v>
       </c>
       <c r="B239">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C239">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D239">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0.65</v>
       </c>
       <c r="B240">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C240">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D240">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0.65</v>
       </c>
       <c r="B241">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C241">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D241">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0.65</v>
       </c>
       <c r="B242">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C242">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D242">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0.65</v>
       </c>
       <c r="B243">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C243">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D243">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0.65</v>
       </c>
       <c r="B244">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C244">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D244">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0.65</v>
       </c>
       <c r="B245">
-        <v>0.3</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C245">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D245">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>0.65</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="B246">
-        <v>0.32500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="C246">
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D246">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0.67500000000000004</v>
       </c>
       <c r="B247">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C247">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D247">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0.67500000000000004</v>
       </c>
       <c r="B248">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C248">
         <v>0.15</v>
       </c>
-      <c r="C248">
-        <v>0.17499999999999999</v>
-      </c>
       <c r="D248">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0.67500000000000004</v>
       </c>
       <c r="B249">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C249">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D249">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0.67500000000000004</v>
       </c>
       <c r="B250">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C250">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D250">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0.67500000000000004</v>
       </c>
       <c r="B251">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C251">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D251">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0.67500000000000004</v>
       </c>
       <c r="B252">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C252">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D252">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0.67500000000000004</v>
       </c>
       <c r="B253">
-        <v>0.27500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="C253">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D253">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>0.67500000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="B254">
-        <v>0.3</v>
+        <v>0.125</v>
       </c>
       <c r="C254">
-        <v>2.5000000000000001E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D254">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>0.7</v>
       </c>
       <c r="B255">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C255">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D255">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>0.7</v>
       </c>
       <c r="B256">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C256">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="D256">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>0.7</v>
       </c>
       <c r="B257">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C257">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D257">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>0.7</v>
       </c>
       <c r="B258">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C258">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D258:D281" si="4">SUM(A258:C258)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>0.7</v>
       </c>
       <c r="B259">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C259">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D282" si="4">SUM(A259:C259)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>0.7</v>
       </c>
       <c r="B260">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C260">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D260">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>0.7</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="B261">
-        <v>0.27500000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="C261">
-        <v>2.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D261">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>0.72499999999999998</v>
       </c>
       <c r="B262">
+        <v>0.15</v>
+      </c>
+      <c r="C262">
         <v>0.125</v>
-      </c>
-      <c r="C262">
-        <v>0.15</v>
       </c>
       <c r="D262">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>0.72499999999999998</v>
       </c>
       <c r="B263">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C263">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D263">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>0.72499999999999998</v>
       </c>
       <c r="B264">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C264">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D264">
         <f t="shared" si="4"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>0.72499999999999998</v>
       </c>
       <c r="B265">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C265">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D265">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>0.72499999999999998</v>
       </c>
       <c r="B266">
-        <v>0.22500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C266">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D266">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>0.72499999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="B267">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C267">
-        <v>2.5000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D267">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>0.75</v>
       </c>
       <c r="B268">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C268">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="D268">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>0.75</v>
       </c>
       <c r="B269">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C269">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D269">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>0.75</v>
       </c>
       <c r="B270">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C270">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D270">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>0.75</v>
       </c>
       <c r="B271">
-        <v>0.2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C271">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D271">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>0.75</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="B272">
-        <v>0.22500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="C272">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D272">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>0.77500000000000002</v>
       </c>
       <c r="B273">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C273">
-        <v>0.1</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D273">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>0.77500000000000002</v>
       </c>
       <c r="B274">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C274">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D274">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>0.77500000000000002</v>
       </c>
       <c r="B275">
-        <v>0.17499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C275">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D275">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="B276">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C276">
-        <v>2.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D276">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>0.8</v>
       </c>
       <c r="B277">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C277">
-        <v>7.4999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D277">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>0.8</v>
       </c>
       <c r="B278">
-        <v>0.15</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C278">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D278">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>0.8</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="B279">
-        <v>0.17499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="C279">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D279">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>0.82499999999999996</v>
       </c>
       <c r="B280">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="C280">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D280">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>0.82499999999999996</v>
+        <v>0.85</v>
       </c>
       <c r="B281">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="C281">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282">
-        <v>0.85</v>
-      </c>
-      <c r="B282">
-        <v>0.125</v>
-      </c>
-      <c r="C282">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D282">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
